--- a/soccer-live-predictions/scrape/reds_manual/reds.xlsx
+++ b/soccer-live-predictions/scrape/reds_manual/reds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D716C5-D0BD-420A-A8AE-9479268F9E15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{218CC6CB-9D53-47B4-9B0D-9D9EEDDA3251}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>tá sem número no site</t>
+  </si>
   <si>
     <t>site bugado</t>
   </si>
@@ -449,12 +452,418 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE3AFCA-18CE-48B2-9C40-A63751236024}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C377"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
+      <selection activeCell="A377" sqref="A377"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>2</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>1</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -463,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+    <sheetView topLeftCell="A362" workbookViewId="0">
       <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1354,47 +1763,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/soccer-live-predictions/scrape/reds_manual/reds.xlsx
+++ b/soccer-live-predictions/scrape/reds_manual/reds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{218CC6CB-9D53-47B4-9B0D-9D9EEDDA3251}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D2838B-D765-4D4A-8C23-74469B778B17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>tem um sem tempo</t>
+  </si>
   <si>
     <t>tá sem número no site</t>
   </si>
@@ -440,22 +443,354 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD81F0-0612-4137-A339-35F4E7D2FD05}">
-  <dimension ref="A1"/>
+  <dimension ref="A8:C382"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="B383" sqref="B383"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>2</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>2</v>
+      </c>
+      <c r="C378" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <f>SUM(A1:A380)</f>
+        <v>74</v>
+      </c>
+      <c r="B382">
+        <f>SUM(B1:B380)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE3AFCA-18CE-48B2-9C40-A63751236024}">
-  <dimension ref="A1:C377"/>
+  <dimension ref="A1:C382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
-      <selection activeCell="A377" sqref="A377"/>
+    <sheetView topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="B383" sqref="B383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -843,24 +1178,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:2">
       <c r="A370">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:2">
       <c r="A372">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:2">
       <c r="A376">
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:2">
       <c r="A377">
         <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <f>SUM(A1:A380)</f>
+        <v>96</v>
+      </c>
+      <c r="B382">
+        <f>SUM(B1:B380)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81217DA2-B38B-4C82-A8BC-9FF7A260BE8C}">
-  <dimension ref="A2:C381"/>
+  <dimension ref="A2:C382"/>
   <sheetViews>
     <sheetView topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+      <selection activeCell="A382" sqref="A382:B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1519,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,12 +2083,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
-      <c r="A381">
+    <row r="382" spans="1:2">
+      <c r="A382">
         <f>SUM(A1:A380)</f>
         <v>104</v>
       </c>
-      <c r="B381">
+      <c r="B382">
         <f>SUM(B1:B380)</f>
         <v>2</v>
       </c>
@@ -1763,47 +2108,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/soccer-live-predictions/scrape/reds_manual/reds.xlsx
+++ b/soccer-live-predictions/scrape/reds_manual/reds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D2838B-D765-4D4A-8C23-74469B778B17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C46B61EA-F06C-46DA-8FDD-C8A330C678A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="6" r:id="rId1"/>
@@ -431,12 +431,396 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C2AEA8-5659-469C-B193-04F40B201764}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <f>SUM(A1:A380)</f>
+        <v>86</v>
+      </c>
+      <c r="B382">
+        <f>SUM(B1:B380)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -445,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD81F0-0612-4137-A339-35F4E7D2FD05}">
   <dimension ref="A8:C382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="B383" sqref="B383"/>
+    <sheetView topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="B382" sqref="A382:B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/soccer-live-predictions/scrape/reds_manual/reds.xlsx
+++ b/soccer-live-predictions/scrape/reds_manual/reds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C46B61EA-F06C-46DA-8FDD-C8A330C678A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99158412-75EE-4702-BB3C-C2F31839CDED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="6" r:id="rId1"/>
@@ -419,12 +419,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7665A690-67E0-445B-9699-00DE71476D7B}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B382"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>3</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>1</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <f>SUM(A1:A380)</f>
+        <v>105</v>
+      </c>
+      <c r="B382">
+        <f>SUM(B1:B380)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -433,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C2AEA8-5659-469C-B193-04F40B201764}">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="B317" sqref="B317"/>
+    <sheetView topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="A381" sqref="A381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,7 +1278,7 @@
   <dimension ref="A8:C382"/>
   <sheetViews>
     <sheetView topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="B382" sqref="A382:B382"/>
+      <selection activeCell="A382" sqref="A382:B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1173,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE3AFCA-18CE-48B2-9C40-A63751236024}">
   <dimension ref="A1:C382"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" workbookViewId="0">
+    <sheetView topLeftCell="A369" workbookViewId="0">
       <selection activeCell="B383" sqref="B383"/>
     </sheetView>
   </sheetViews>
@@ -1601,7 +2049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B382"/>
   <sheetViews>
-    <sheetView topLeftCell="A362" workbookViewId="0">
+    <sheetView topLeftCell="A364" workbookViewId="0">
       <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
